--- a/CH-151 Solid Worl.xlsx
+++ b/CH-151 Solid Worl.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FDA03A-8E87-4E51-B834-8BF18F9C879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069191D-0F27-4503-B840-78A1B47D4712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -897,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1241,4 +1265,759 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00765363-884F-4DCA-BCE4-19E4868BF93F}">
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="6" width="10.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="D3" s="21">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="39">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="J3" s="41">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="E4" s="25">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="42">
+        <v>2</v>
+      </c>
+      <c r="I4" s="43">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="J4" s="44">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="45">
+        <v>3</v>
+      </c>
+      <c r="I5" s="46">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="J5" s="47">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5</v>
+      </c>
+      <c r="E6" s="31">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="48">
+        <v>4</v>
+      </c>
+      <c r="I6" s="49">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="J6" s="50">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="51">
+        <v>5</v>
+      </c>
+      <c r="I7" s="52">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="J7" s="53">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="33">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="D8" s="34">
+        <v>7</v>
+      </c>
+      <c r="E8" s="34">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15">
+        <v>6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="J8" s="17">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="35">
+        <v>14.238796785</v>
+      </c>
+      <c r="C9" s="29">
+        <v>8</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="E9" s="29">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="F9" s="26">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="15">
+        <v>7</v>
+      </c>
+      <c r="I9" s="54">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="J9" s="18">
+        <v>14.238796785</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36">
+        <v>13.491118387</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="37">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="55">
+        <v>8</v>
+      </c>
+      <c r="I10" s="54">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="J10" s="18">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="56">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19">
+        <v>13.491118387</v>
+      </c>
+      <c r="J11" s="57">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" cm="1">
+        <f t="array" ref="C14:C47">_xlfn.TOCOL(B3:F10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" cm="1">
+        <f t="array" ref="D14:D40">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(C14),ISNUMBER(_xlfn.ANCHORARRAY(C14)))</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" cm="1">
+        <f t="array" ref="H14:J22">_xlfn.WRAPROWS(_xlfn.ANCHORARRAY(D14),3)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="J14" s="7">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L14" t="b" cm="1">
+        <f t="array" ref="L14:N22">_xlfn.ANCHORARRAY(H14)=H3:J11</f>
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="J15">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="J16">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="J17">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="J18">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="J19">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="J20">
+        <v>14.238796785</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="J21">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="H22" s="5">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>13.491118387</v>
+      </c>
+      <c r="J22">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-6.9681729509999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="str">
+        <v>x</v>
+      </c>
+      <c r="D25" s="4">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="str">
+        <v>x</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="str">
+        <v>x</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9.8603081269999997</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D28" s="4">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="D30" s="4">
+        <v>15.281757216999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15.480173389000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-1.6866469639999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="str">
+        <v>m</v>
+      </c>
+      <c r="D34" s="4">
+        <v>14.238796785</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="str">
+        <v>fghbf</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5.5603806660000004</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7.5524191150000002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>14.238796785</v>
+      </c>
+      <c r="D39" s="4">
+        <v>13.491118387</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4">
+        <v>11.082843070999999</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>5.5603806660000004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>7.5524191150000002</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>13.491118387</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="str">
+        <v>s</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="str">
+        <v>a</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="4">
+        <v>11.082843070999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-151 Solid Worl.xlsx
+++ b/CH-151 Solid Worl.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069191D-0F27-4503-B840-78A1B47D4712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95297C4-D9FC-4770-BD73-AB76D95F3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="MySingle" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingle!$B$2:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -1271,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00765363-884F-4DCA-BCE4-19E4868BF93F}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2020,4 +2022,641 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961BE012-33E9-45FA-8E02-97B21AB8D3FF}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="6" width="10.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="D3" s="21">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="39">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="J3" s="41">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="E4" s="25">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="42">
+        <v>2</v>
+      </c>
+      <c r="I4" s="43">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="J4" s="44">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="45">
+        <v>3</v>
+      </c>
+      <c r="I5" s="46">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="J5" s="47">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5</v>
+      </c>
+      <c r="E6" s="31">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="48">
+        <v>4</v>
+      </c>
+      <c r="I6" s="49">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="J6" s="50">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="51">
+        <v>5</v>
+      </c>
+      <c r="I7" s="52">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="J7" s="53">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="33">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="D8" s="34">
+        <v>7</v>
+      </c>
+      <c r="E8" s="34">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15">
+        <v>6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="J8" s="17">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="35">
+        <v>14.238796785</v>
+      </c>
+      <c r="C9" s="29">
+        <v>8</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="E9" s="29">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="F9" s="26">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="15">
+        <v>7</v>
+      </c>
+      <c r="I9" s="54">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="J9" s="18">
+        <v>14.238796785</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36">
+        <v>13.491118387</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="37">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="55">
+        <v>8</v>
+      </c>
+      <c r="I10" s="54">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="J10" s="18">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="56">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19">
+        <v>13.491118387</v>
+      </c>
+      <c r="J11" s="57">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="str" cm="1">
+        <f t="array" ref="G16:I25">_xlfn.LET(
+_xlpm.c,_xlfn.TOCOL(B3:F10),
+_xlpm.cf, _xlfn._xlws.FILTER(_xlpm.c,ISNUMBER(_xlpm.c)),
+_xlfn.VSTACK(H2:J2,_xlfn.WRAPROWS(_xlpm.cf,3))
+)</f>
+        <v>x</v>
+      </c>
+      <c r="H16" s="13" t="str">
+        <v>y</v>
+      </c>
+      <c r="I16" s="14" t="str">
+        <v>z</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="39">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="I17" s="41">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="42">
+        <v>2</v>
+      </c>
+      <c r="H18" s="43">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="I18" s="44">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="45">
+        <v>3</v>
+      </c>
+      <c r="H19" s="46">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="I19" s="47">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G20" s="48">
+        <v>4</v>
+      </c>
+      <c r="H20" s="49">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="I20" s="50">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="51">
+        <v>5</v>
+      </c>
+      <c r="H21" s="52">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="I21" s="53">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="15">
+        <v>6</v>
+      </c>
+      <c r="H22" s="16">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="I22" s="17">
+        <v>15.480173389000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="15">
+        <v>7</v>
+      </c>
+      <c r="H23" s="54">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="I23" s="18">
+        <v>14.238796785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="G24" s="55">
+        <v>8</v>
+      </c>
+      <c r="H24" s="54">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="I24" s="18">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="G25" s="56">
+        <v>9</v>
+      </c>
+      <c r="H25" s="19">
+        <v>13.491118387</v>
+      </c>
+      <c r="I25" s="57">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="G26"/>
+      <c r="H26" s="5"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="G27"/>
+      <c r="H27" s="5"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="G28"/>
+      <c r="H28" s="5"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="G29"/>
+      <c r="H29" s="5"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="G30"/>
+      <c r="H30" s="5"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="G31"/>
+      <c r="H31" s="5"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="G32"/>
+      <c r="H32" s="5"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="G33"/>
+      <c r="H33" s="5"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="G34"/>
+      <c r="H34" s="5"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="G35"/>
+      <c r="H35" s="5"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="G36"/>
+      <c r="H36" s="5"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="G37"/>
+      <c r="H37" s="5"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="G38"/>
+      <c r="H38" s="5"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-151 Solid Worl.xlsx
+++ b/CH-151 Solid Worl.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95297C4-D9FC-4770-BD73-AB76D95F3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC66700-A679-4279-B18A-44E16D70AF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="MySingle" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt1'!$B$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingle!$B$2:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$G$14</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -110,6 +112,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>This solution is similar to mine, just did operations in different order.</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961BE012-33E9-45FA-8E02-97B21AB8D3FF}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -2659,4 +2664,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2617D-69A9-4F41-984A-874633BD787D}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="6" width="10.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="D3" s="21">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="39">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="J3" s="41">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="E4" s="25">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="42">
+        <v>2</v>
+      </c>
+      <c r="I4" s="43">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="J4" s="44">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="45">
+        <v>3</v>
+      </c>
+      <c r="I5" s="46">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="J5" s="47">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5</v>
+      </c>
+      <c r="E6" s="31">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="48">
+        <v>4</v>
+      </c>
+      <c r="I6" s="49">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="J6" s="50">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="51">
+        <v>5</v>
+      </c>
+      <c r="I7" s="52">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="J7" s="53">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="33">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="D8" s="34">
+        <v>7</v>
+      </c>
+      <c r="E8" s="34">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15">
+        <v>6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="J8" s="17">
+        <v>15.480173389000001</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="35">
+        <v>14.238796785</v>
+      </c>
+      <c r="C9" s="29">
+        <v>8</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="E9" s="29">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="F9" s="26">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="15">
+        <v>7</v>
+      </c>
+      <c r="I9" s="54">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="J9" s="18">
+        <v>14.238796785</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36">
+        <v>13.491118387</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="37">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="55">
+        <v>8</v>
+      </c>
+      <c r="I10" s="54">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="J10" s="18">
+        <v>7.5524191150000002</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="56">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19">
+        <v>13.491118387</v>
+      </c>
+      <c r="J11" s="57">
+        <v>11.082843070999999</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" cm="1">
+        <f t="array" ref="C12:E20">_xlfn.LET(
+_xlpm.d, B3:F10,
+_xlpm.df, IF((ISTEXT(_xlpm.d))+(_xlpm.d=0),NA(),_xlpm.d),
+_xlfn.WRAPROWS(_xlfn.TOCOL(_xlpm.df,3),3)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-8.1120029900000006</v>
+      </c>
+      <c r="E12" s="7">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-12.714630403999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-10.905970308000001</v>
+      </c>
+      <c r="E14" s="7">
+        <v>49.496281891999999</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-6.9681729509999997</v>
+      </c>
+      <c r="E15" s="7">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.8603081269999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>49.496281891999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>15.281757216999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>15.480173389000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-1.6866469639999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>14.238796785</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.5603806660000004</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.5524191150000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13.491118387</v>
+      </c>
+      <c r="E20" s="4">
+        <v>11.082843070999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>